--- a/Sonia_IndiaLab_English_20200701.xlsx
+++ b/Sonia_IndiaLab_English_20200701.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvija\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE754CAA-57E5-4E7D-B7CD-03D74A428532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="480">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1489,9 +1495,6 @@
   </si>
   <si>
     <t>WIP</t>
-  </si>
-  <si>
-    <t>Import Document Need, Code changes done</t>
   </si>
   <si>
     <r>
@@ -2297,8 +2300,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2743,25 +2746,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2872,7 +2875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2904,9 +2907,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2938,6 +2959,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3113,7 +3152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3127,7 +3166,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3135,7 +3174,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3147,7 +3186,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3200,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="49" t="s">
         <v>14</v>
@@ -3173,7 +3212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -3181,7 +3220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
       <c r="B5" s="49" t="s">
         <v>9</v>
@@ -3193,7 +3232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -3201,7 +3240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3213,7 +3252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3225,7 +3264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3237,7 +3276,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3249,7 +3288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3261,7 +3300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3273,7 +3312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
         <v>1</v>
       </c>
@@ -3287,7 +3326,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3299,7 +3338,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3311,7 +3350,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3323,7 +3362,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3335,7 +3374,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3347,7 +3386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3359,7 +3398,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3371,7 +3410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3383,7 +3422,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3395,7 +3434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3407,7 +3446,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3419,7 +3458,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3431,7 +3470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3443,7 +3482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3455,7 +3494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="49"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3467,7 +3506,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3479,7 +3518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3491,7 +3530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3503,7 +3542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3515,7 +3554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3527,7 +3566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3539,7 +3578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3551,7 +3590,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3563,7 +3602,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3575,7 +3614,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="49"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3587,7 +3626,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="49"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3599,7 +3638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="49"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3611,7 +3650,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="49"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3623,7 +3662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="49"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3635,7 +3674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="49"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3647,7 +3686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="49"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3659,7 +3698,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3671,7 +3710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3683,7 +3722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="49"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3695,7 +3734,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="49"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3707,7 +3746,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="49" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="49"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3733,7 +3772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="49"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3745,7 +3784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3757,7 +3796,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="49"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3769,7 +3808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="49"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3781,7 +3820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="49"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3793,7 +3832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="49"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3805,7 +3844,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3817,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="49"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -3829,7 +3868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="49"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -3841,7 +3880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="49"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -3853,7 +3892,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
         <v>35</v>
       </c>
@@ -3867,7 +3906,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="49"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -3879,7 +3918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="49"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -3891,7 +3930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="49" t="s">
         <v>36</v>
       </c>
@@ -3905,7 +3944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="49"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -3917,7 +3956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="49"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -3929,7 +3968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="49" t="s">
         <v>3</v>
       </c>
@@ -3943,27 +3982,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="49"/>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="49"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="49"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -3975,27 +4014,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="49"/>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="49"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="49"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4007,7 +4046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="49"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4019,7 +4058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="49" t="s">
         <v>127</v>
       </c>
@@ -4033,47 +4072,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="49"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="49"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="49"/>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="49"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="49"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4085,7 +4124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="49"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4097,7 +4136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="49" t="s">
         <v>4</v>
       </c>
@@ -4111,27 +4150,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="49"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="49"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="49"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4143,7 +4182,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="49"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4155,19 +4194,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4176,14 +4217,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4196,7 +4235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4210,7 +4249,7 @@
       <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -4219,7 +4258,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4232,7 +4271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
@@ -4247,9 +4286,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -4260,18 +4299,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
-      <c r="B4" s="56"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="49"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -4282,16 +4321,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
-      <c r="B6" s="56"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="49"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4304,7 +4343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4319,7 +4358,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -4334,7 +4373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -4347,7 +4386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -4360,7 +4399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -4373,7 +4412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
         <v>166</v>
       </c>
@@ -4388,7 +4427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -4401,7 +4440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -4414,7 +4453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -4427,7 +4466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -4440,7 +4479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -4453,7 +4492,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -4466,7 +4505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -4479,7 +4518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -4492,7 +4531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -4505,7 +4544,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -4518,7 +4557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -4531,7 +4570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -4544,7 +4583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -4557,7 +4596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -4570,7 +4609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="49"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -4583,7 +4622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -4596,7 +4635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -4609,7 +4648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -4622,7 +4661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -4635,7 +4674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -4648,7 +4687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -4661,7 +4700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -4674,7 +4713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -4687,7 +4726,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -4700,7 +4739,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="49"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -4713,7 +4752,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="49"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -4726,7 +4765,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="49"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -4739,7 +4778,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="49"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -4752,7 +4791,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="49"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -4767,7 +4806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="49"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -4782,7 +4821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="49"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -4797,7 +4836,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4810,7 +4849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4823,7 +4862,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="49"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -4836,7 +4875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="49"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -4849,7 +4888,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="49" t="s">
         <v>175</v>
       </c>
@@ -4864,7 +4903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="49"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -4877,7 +4916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="49"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -4890,7 +4929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -4903,7 +4942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="49"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -4916,7 +4955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="49"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -4929,7 +4968,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="49"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -4942,7 +4981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="49"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -4955,7 +4994,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -4970,7 +5009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="49"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -4983,7 +5022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="49"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -4998,7 +5037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="49"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5011,7 +5050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
         <v>176</v>
       </c>
@@ -5026,7 +5065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="49"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5039,7 +5078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="49"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5052,7 +5091,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="49" t="s">
         <v>168</v>
       </c>
@@ -5067,7 +5106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="49"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5080,7 +5119,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="49"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5093,7 +5132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="49" t="s">
         <v>169</v>
       </c>
@@ -5108,12 +5147,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="49"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5121,16 +5160,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="49"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="49"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5143,12 +5182,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="49"/>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5156,16 +5195,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="49"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="49"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5178,7 +5217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="49"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5191,7 +5230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="49" t="s">
         <v>106</v>
       </c>
@@ -5206,12 +5245,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="49"/>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5219,21 +5258,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="49"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="49"/>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5241,16 +5280,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="49"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="49"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5263,7 +5302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="49"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5276,7 +5315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="49" t="s">
         <v>104</v>
       </c>
@@ -5291,12 +5330,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="49"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5304,16 +5343,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="49"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="49"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5326,7 +5365,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="49"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -5339,35 +5378,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5384,6 +5417,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5395,14 +5434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -5410,12 +5449,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5424,7 +5463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
         <v>147</v>
       </c>
@@ -5435,7 +5474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="57"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -5444,7 +5483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="57"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -5453,7 +5492,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A7" s="57"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -5462,7 +5501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5471,7 +5510,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5482,7 +5521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5493,7 +5532,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5515,14 +5554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -5535,7 +5574,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5560,7 +5599,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
@@ -5583,7 +5622,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -5604,7 +5643,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5617,7 +5656,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -5638,7 +5677,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5651,7 +5690,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -5670,7 +5709,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -5689,7 +5728,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -5708,7 +5747,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -5725,7 +5764,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -5742,7 +5781,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -5759,7 +5798,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5769,7 +5808,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5779,7 +5818,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
         <v>166</v>
       </c>
@@ -21023,7 +21062,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21044,7 +21083,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21065,7 +21104,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21086,7 +21125,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21105,7 +21144,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21126,7 +21165,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21147,7 +21186,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21168,7 +21207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21189,7 +21228,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21210,7 +21249,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21231,7 +21270,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21252,7 +21291,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21273,7 +21312,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21292,7 +21331,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21313,7 +21352,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -21334,7 +21373,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -21355,7 +21394,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -21376,7 +21415,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -21397,7 +21436,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -21418,7 +21457,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -21439,7 +21478,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -21460,7 +21499,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -21481,7 +21520,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="49"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -21504,7 +21543,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="49"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -21527,7 +21566,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="49"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -21550,7 +21589,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="49"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -21573,7 +21612,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="49"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -21596,7 +21635,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="49"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -21617,7 +21656,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="49"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -21636,7 +21675,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -21655,7 +21694,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="49"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -21674,7 +21713,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="49"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -21691,7 +21730,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="49"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -21708,7 +21747,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="49"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -21725,7 +21764,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="49"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -21742,7 +21781,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21753,7 +21792,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21764,7 +21803,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="49" t="s">
         <v>175</v>
       </c>
@@ -21783,7 +21822,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21800,7 +21839,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="49"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21821,7 +21860,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="49"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -21838,7 +21877,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -21855,7 +21894,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="49"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -21872,7 +21911,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="49"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -21889,7 +21928,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="49"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -21906,7 +21945,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="49"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -21925,7 +21964,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="49"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -21942,7 +21981,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="49"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -21961,7 +22000,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="49"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -21978,7 +22017,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -21989,7 +22028,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22000,7 +22039,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="58" t="s">
         <v>176</v>
       </c>
@@ -22023,7 +22062,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="58"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22044,7 +22083,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="58"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22061,7 +22100,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22072,7 +22111,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22083,7 +22122,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="58" t="s">
         <v>168</v>
       </c>
@@ -22106,7 +22145,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="58"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22127,7 +22166,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="58"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22144,7 +22183,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22155,7 +22194,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22166,7 +22205,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="49" t="s">
         <v>169</v>
       </c>
@@ -22189,7 +22228,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="49"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22210,7 +22249,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="49"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22223,7 +22262,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="49"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22244,7 +22283,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="49"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22265,7 +22304,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="49"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22278,7 +22317,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="49"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22299,7 +22338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="49"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22316,7 +22355,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22327,7 +22366,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22338,7 +22377,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="49" t="s">
         <v>106</v>
       </c>
@@ -22361,7 +22400,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="49"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -22382,7 +22421,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="49"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -22395,7 +22434,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="49"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -22416,7 +22455,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="49"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -22429,7 +22468,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="49"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -22450,7 +22489,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="49"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -22467,7 +22506,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22478,7 +22517,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22489,7 +22528,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="49" t="s">
         <v>104</v>
       </c>
@@ -22512,7 +22551,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="49"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -22533,7 +22572,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="49"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -22546,7 +22585,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="49"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -22567,7 +22606,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="49"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -22584,7 +22623,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22595,7 +22634,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22606,7 +22645,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22617,7 +22656,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22628,7 +22667,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22639,7 +22678,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22648,7 +22687,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22657,7 +22696,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22666,7 +22705,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22676,7 +22715,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22686,7 +22725,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22696,7 +22735,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22706,7 +22745,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22716,7 +22755,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22726,7 +22765,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22736,7 +22775,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22746,7 +22785,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22756,7 +22795,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22766,7 +22805,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22776,7 +22815,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22786,7 +22825,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22796,7 +22835,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22806,7 +22845,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22816,7 +22855,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22826,7 +22865,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22836,7 +22875,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22846,7 +22885,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22856,7 +22895,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22866,7 +22905,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22876,7 +22915,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22886,7 +22925,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -22896,7 +22935,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -22906,7 +22945,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -22916,7 +22955,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -22926,7 +22965,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -22936,7 +22975,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -22946,7 +22985,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -22956,7 +22995,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -22966,7 +23005,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -22976,7 +23015,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -22986,7 +23025,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -22996,7 +23035,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23023,14 +23062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -23044,7 +23083,7 @@
     <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23062,7 +23101,7 @@
         <v>300</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>320</v>
@@ -23074,7 +23113,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
@@ -23085,7 +23124,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23100,13 +23139,13 @@
         <v>322</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="81">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23115,7 +23154,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23130,13 +23169,13 @@
         <v>322</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23145,7 +23184,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23160,13 +23199,13 @@
         <v>322</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
         <v>166</v>
       </c>
@@ -23181,16 +23220,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23202,23 +23241,23 @@
         <v>302</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23237,16 +23276,16 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23265,16 +23304,16 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23287,16 +23326,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23315,16 +23354,16 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23336,23 +23375,23 @@
         <v>302</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23364,23 +23403,23 @@
         <v>302</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="49"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23399,16 +23438,16 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23427,16 +23466,16 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23455,16 +23494,16 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23483,16 +23522,16 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23511,16 +23550,16 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23531,16 +23570,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23549,26 +23588,26 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J19" s="33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23577,26 +23616,26 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23615,16 +23654,16 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23643,16 +23682,16 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J22" s="34" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
@@ -23679,10 +23718,10 @@
         <v>325</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23691,26 +23730,26 @@
         <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E24" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23719,26 +23758,26 @@
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23757,16 +23796,16 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J26" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23775,26 +23814,26 @@
         <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E27" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="49"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23812,7 +23851,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>323</v>
@@ -23821,10 +23860,10 @@
         <v>325</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -23851,10 +23890,10 @@
         <v>325</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -23872,7 +23911,7 @@
         <v>304</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>323</v>
@@ -23881,10 +23920,10 @@
         <v>325</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -23902,7 +23941,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>323</v>
@@ -23911,10 +23950,10 @@
         <v>325</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -23932,7 +23971,7 @@
         <v>308</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>323</v>
@@ -23941,10 +23980,10 @@
         <v>325</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -23962,7 +24001,7 @@
         <v>295</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>323</v>
@@ -23971,10 +24010,10 @@
         <v>325</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -23992,7 +24031,7 @@
         <v>304</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>323</v>
@@ -24001,10 +24040,10 @@
         <v>325</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24022,7 +24061,7 @@
         <v>295</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>323</v>
@@ -24031,10 +24070,10 @@
         <v>325</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24061,10 +24100,10 @@
         <v>325</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24082,7 +24121,7 @@
         <v>304</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>323</v>
@@ -24091,10 +24130,10 @@
         <v>325</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="49"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24112,7 +24151,7 @@
         <v>295</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>323</v>
@@ -24121,10 +24160,10 @@
         <v>325</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="49"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24142,7 +24181,7 @@
         <v>304</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>323</v>
@@ -24151,10 +24190,10 @@
         <v>325</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="49"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
@@ -24163,7 +24202,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24181,10 +24220,10 @@
         <v>325</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
         <v>175</v>
       </c>
@@ -24203,10 +24242,10 @@
         <v>325</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="49"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24222,7 +24261,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="49"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24238,7 +24277,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="49"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24254,7 +24293,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24270,7 +24309,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="49"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24286,7 +24325,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="49"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24302,7 +24341,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="49"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24318,7 +24357,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="49" t="s">
         <v>176</v>
       </c>
@@ -24347,10 +24386,10 @@
         <v>325</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="49"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24377,10 +24416,10 @@
         <v>325</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="49" t="s">
         <v>168</v>
       </c>
@@ -24406,13 +24445,13 @@
         <v>323</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="49"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24436,13 +24475,13 @@
         <v>323</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J52" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="121.5">
+    </row>
+    <row r="53" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A53" s="49" t="s">
         <v>169</v>
       </c>
@@ -24453,16 +24492,16 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>321</v>
@@ -24471,10 +24510,10 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24483,28 +24522,28 @@
         <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="49"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24513,28 +24552,28 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="49"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24543,28 +24582,28 @@
         <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24573,28 +24612,28 @@
         <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="27">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
         <v>106</v>
       </c>
@@ -24614,7 +24653,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24623,10 +24662,10 @@
         <v>325</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="49"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -24653,10 +24692,10 @@
         <v>325</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="49"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
@@ -24683,10 +24722,10 @@
         <v>325</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="49"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
@@ -24713,10 +24752,10 @@
         <v>325</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="49" t="s">
         <v>104</v>
       </c>
@@ -24745,10 +24784,10 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="49"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
@@ -24766,7 +24805,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24775,10 +24814,10 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="148.5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A64" s="49"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
@@ -24796,7 +24835,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24805,13 +24844,11 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64">
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24828,21 +24865,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24853,7 +24890,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24864,7 +24901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
         <v>166</v>
       </c>
@@ -24875,7 +24912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="59"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -24884,7 +24921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -24895,7 +24932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -24906,7 +24943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -24917,7 +24954,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -24928,7 +24965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -24939,7 +24976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -24950,8 +24987,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="53" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24961,8 +24998,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="56"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="54"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -24970,7 +25007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -24981,7 +25018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -24992,7 +25029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -25003,7 +25040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -25014,7 +25051,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="60" t="s">
         <v>166</v>
       </c>
@@ -25022,10 +25059,10 @@
         <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -25034,7 +25071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -25043,7 +25080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -25052,7 +25089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -25061,7 +25098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -25070,7 +25107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -25079,7 +25116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="60"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -25088,7 +25125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -25097,7 +25134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="60"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -25106,7 +25143,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -25117,7 +25154,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27">
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -25128,7 +25165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="60" t="s">
         <v>166</v>
       </c>
@@ -25139,7 +25176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="60"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -25148,7 +25185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -25159,7 +25196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -25170,7 +25207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -25194,14 +25231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView topLeftCell="K93" workbookViewId="0">
       <selection activeCell="K102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -25225,21 +25262,21 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
       <c r="D1" s="64"/>
       <c r="E1" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="67"/>
       <c r="I1" s="61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
@@ -25257,85 +25294,85 @@
       <c r="S1" s="72"/>
       <c r="T1" s="72"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>355</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>356</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>355</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>356</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>355</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>356</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="M2" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>355</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>356</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>280</v>
       </c>
       <c r="Q2" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>355</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>356</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -25343,43 +25380,43 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R3" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>358</v>
-      </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25387,43 +25424,43 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -25431,43 +25468,43 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -25475,43 +25512,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -25519,43 +25556,43 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -25563,43 +25600,43 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -25607,43 +25644,43 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="R9" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>358</v>
-      </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -25651,43 +25688,43 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -25695,43 +25732,43 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -25739,43 +25776,43 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -25783,43 +25820,43 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -25827,43 +25864,43 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -25871,43 +25908,43 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -25915,43 +25952,43 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -25959,43 +25996,43 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -26003,43 +26040,43 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -26047,43 +26084,43 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -26091,43 +26128,43 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -26135,43 +26172,43 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26179,43 +26216,43 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -26223,35 +26260,35 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -26263,35 +26300,35 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R24" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -26303,35 +26340,35 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -26343,35 +26380,35 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -26383,27 +26420,27 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R27" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26417,27 +26454,27 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26451,7 +26488,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
@@ -26459,17 +26496,17 @@
       <c r="O29" s="34"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S29" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26483,27 +26520,27 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R30" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26517,27 +26554,27 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R31" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26551,27 +26588,27 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R32" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26585,29 +26622,29 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R33" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -26621,29 +26658,29 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R34" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -26657,27 +26694,27 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R35" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -26691,27 +26728,27 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -26725,27 +26762,27 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26759,27 +26796,27 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R38" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26793,27 +26830,27 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26827,27 +26864,27 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26861,27 +26898,27 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -26895,27 +26932,27 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R42" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -26929,27 +26966,27 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -26963,27 +27000,27 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R44" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -26997,27 +27034,27 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R45" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -27031,27 +27068,27 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S46" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -27065,27 +27102,27 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -27099,27 +27136,27 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -27133,27 +27170,27 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27167,27 +27204,27 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R50" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27201,13 +27238,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -27215,7 +27252,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27229,13 +27266,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -27243,7 +27280,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27257,23 +27294,23 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27287,23 +27324,23 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27317,23 +27354,23 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27347,23 +27384,23 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27377,23 +27414,23 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27407,23 +27444,23 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27437,23 +27474,23 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27467,23 +27504,23 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27497,23 +27534,23 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27527,23 +27564,23 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27557,23 +27594,23 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27587,13 +27624,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -27601,7 +27638,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27615,13 +27652,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27629,7 +27666,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -27643,13 +27680,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -27657,7 +27694,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -27671,13 +27708,13 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -27685,7 +27722,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27699,13 +27736,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -27713,7 +27750,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -27727,13 +27764,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -27741,7 +27778,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -27755,13 +27792,13 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -27769,7 +27806,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -27783,13 +27820,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27797,7 +27834,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -27811,13 +27848,13 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -27825,7 +27862,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -27839,13 +27876,13 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -27853,7 +27890,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -27867,13 +27904,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -27881,7 +27918,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -27895,13 +27932,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -27909,7 +27946,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -27923,13 +27960,13 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -27937,7 +27974,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -27951,13 +27988,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -27965,7 +28002,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27979,13 +28016,13 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -27993,7 +28030,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28007,13 +28044,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -28021,7 +28058,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -28035,13 +28072,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -28049,7 +28086,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28063,13 +28100,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -28077,7 +28114,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -28091,13 +28128,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28105,7 +28142,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28119,13 +28156,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -28133,7 +28170,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -28147,13 +28184,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -28161,7 +28198,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -28175,13 +28212,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -28189,7 +28226,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28203,13 +28240,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O86" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>439</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -28217,7 +28254,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28231,13 +28268,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -28245,7 +28282,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28259,13 +28296,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -28273,7 +28310,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28287,13 +28324,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -28301,7 +28338,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28315,13 +28352,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -28329,7 +28366,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28343,13 +28380,13 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -28357,7 +28394,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28371,13 +28408,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -28385,7 +28422,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28399,13 +28436,13 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -28413,7 +28450,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28427,13 +28464,13 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -28441,7 +28478,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28455,13 +28492,13 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -28469,7 +28506,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28483,13 +28520,13 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -28497,7 +28534,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28511,13 +28548,13 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -28525,7 +28562,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28539,13 +28576,13 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -28553,7 +28590,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28567,13 +28604,13 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -28581,7 +28618,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28595,13 +28632,13 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -28609,7 +28646,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -28623,13 +28660,13 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -28637,7 +28674,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28651,13 +28688,13 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -28665,7 +28702,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -28679,13 +28716,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -28693,7 +28730,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -28707,13 +28744,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -28721,7 +28758,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -28735,13 +28772,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28749,7 +28786,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -28763,13 +28800,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28777,7 +28814,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -28791,13 +28828,13 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -28805,7 +28842,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -28819,13 +28856,13 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -28833,7 +28870,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -28847,13 +28884,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28861,7 +28898,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -28875,13 +28912,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28889,7 +28926,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -28903,13 +28940,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -28917,7 +28954,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -28931,13 +28968,13 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -28945,7 +28982,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -28959,13 +28996,13 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -28973,7 +29010,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -28995,7 +29032,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -29017,7 +29054,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29039,7 +29076,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29061,7 +29098,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -29083,7 +29120,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29105,7 +29142,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -29127,7 +29164,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -29149,7 +29186,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -29171,7 +29208,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -29193,7 +29230,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29215,7 +29252,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29237,7 +29274,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29259,7 +29296,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29281,7 +29318,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29303,7 +29340,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29325,7 +29362,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29347,7 +29384,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29369,7 +29406,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29391,7 +29428,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29413,7 +29450,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29435,7 +29472,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29457,7 +29494,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29479,7 +29516,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29501,7 +29538,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29523,7 +29560,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29545,7 +29582,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29567,7 +29604,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29589,7 +29626,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -29611,7 +29648,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -29633,7 +29670,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
